--- a/auxfiles/observa.xlsx
+++ b/auxfiles/observa.xlsx
@@ -28,6 +28,9 @@
     <t xml:space="preserve">NameObserv</t>
   </si>
   <si>
+    <t xml:space="preserve">no aplica</t>
+  </si>
+  <si>
     <t xml:space="preserve">MEAN</t>
   </si>
   <si>
@@ -35,9 +38,6 @@
   </si>
   <si>
     <t xml:space="preserve">LOW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">non aplic</t>
   </si>
 </sst>
 </file>
@@ -52,6 +52,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -72,6 +73,7 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -149,12 +151,12 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -168,7 +170,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -177,7 +179,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -186,7 +188,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
@@ -195,7 +197,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
